--- a/Documentação/Relatorio.xlsx
+++ b/Documentação/Relatorio.xlsx
@@ -5,11 +5,11 @@
   <workbookPr autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/claudiamaksoud/Desktop/PUC/INF1413/T2/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/claudiamaksoud/INF1413-T3/Documentação/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="11420" yWindow="460" windowWidth="25600" windowHeight="15460" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="15460" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Página1" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="23">
   <si>
     <t>Data</t>
   </si>
@@ -59,55 +59,46 @@
     <t>Estudar, Redigir</t>
   </si>
   <si>
-    <t>Estudo do enunciado do trabalho e das notas de aula e início da realização da Tarefa 1.</t>
-  </si>
-  <si>
-    <t>3 horas</t>
-  </si>
-  <si>
-    <t>Estudo das notas de aula, continuação da realização da Tarefa 1 e início da realização da Tarefa 2.</t>
-  </si>
-  <si>
     <t>Redigir</t>
   </si>
   <si>
-    <t>Fim da realização da Tarefa 1.</t>
-  </si>
-  <si>
-    <t>Estudo das notas de aula e continuação da realização da Tarefa 2.</t>
-  </si>
-  <si>
     <t>Bruno Balbuena</t>
   </si>
   <si>
     <t>Leandro Morgado</t>
   </si>
   <si>
-    <t>Estudo do enunciado do trabalho e das notas de aula e início da realização da Tarefa 4.</t>
-  </si>
-  <si>
-    <t>Estudo do enunciado do trabalho e das notas de aula e início da realização da Tarefa 3.</t>
-  </si>
-  <si>
-    <t>Fim da realização da Tarefa 2.</t>
-  </si>
-  <si>
-    <t>Fim da realização da Tarefa 4, início e fim da realização da Tarefa 5.</t>
-  </si>
-  <si>
-    <t>Fim da realização da Tarefa 3.</t>
-  </si>
-  <si>
-    <t>Reunião da equipe para a realização da revisão do trabalho para entrega.</t>
-  </si>
-  <si>
-    <t>Revisar</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3 horas </t>
-  </si>
-  <si>
     <t>4 horas</t>
+  </si>
+  <si>
+    <t>Estudar</t>
+  </si>
+  <si>
+    <t>Reunião da equipe para a realização do estudo do enunciado do trabalho e das notas de aula.</t>
+  </si>
+  <si>
+    <t>Estudo das notas de aula e realização da Tarefa 2.</t>
+  </si>
+  <si>
+    <t>Estudo das notas de aula e realização da Tarefa 1.</t>
+  </si>
+  <si>
+    <t>Estudo das notas de aula e realização da Tarefa 3.</t>
+  </si>
+  <si>
+    <t>Estudo das notas de aula e realização da Tarefa 4.</t>
+  </si>
+  <si>
+    <t>Estudo das notas de aula e realização da Tarefa 5.</t>
+  </si>
+  <si>
+    <t>Redigir, Revisar</t>
+  </si>
+  <si>
+    <t>Reunião da equipe para a realização da Tarefa 6 e revisão do trabalho para entrega.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2 horas </t>
   </si>
 </sst>
 </file>
@@ -236,7 +227,24 @@
         <name val="Arial"/>
         <scheme val="none"/>
       </font>
-      <numFmt numFmtId="164" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -274,7 +282,7 @@
         <name val="Arial"/>
         <scheme val="none"/>
       </font>
-      <numFmt numFmtId="19" formatCode="dd/mm/yy"/>
+      <numFmt numFmtId="164" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -293,24 +301,7 @@
         <name val="Arial"/>
         <scheme val="none"/>
       </font>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="14"/>
-        <color auto="1"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
+      <numFmt numFmtId="19" formatCode="dd/mm/yy"/>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -369,11 +360,11 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E13" totalsRowShown="0" headerRowDxfId="6" dataDxfId="5">
   <autoFilter ref="A1:E13"/>
   <tableColumns count="5">
-    <tableColumn id="1" name="Data" dataDxfId="2"/>
-    <tableColumn id="2" name="Horas Trabalhadas" dataDxfId="0"/>
-    <tableColumn id="3" name="Quem trabalhou" dataDxfId="1"/>
-    <tableColumn id="4" name="Tipo Tarefa" dataDxfId="4"/>
-    <tableColumn id="5" name="Descrição da Tarefa Realizada" dataDxfId="3"/>
+    <tableColumn id="1" name="Data" dataDxfId="4"/>
+    <tableColumn id="2" name="Horas Trabalhadas" dataDxfId="3"/>
+    <tableColumn id="3" name="Quem trabalhou" dataDxfId="2"/>
+    <tableColumn id="4" name="Tipo Tarefa" dataDxfId="1"/>
+    <tableColumn id="5" name="Descrição da Tarefa Realizada" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleDark11" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -703,8 +694,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -735,206 +726,206 @@
     </row>
     <row r="2" spans="1:5" ht="45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="1">
-        <v>42855</v>
+        <v>42877</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="1">
-        <v>42856</v>
+        <v>42877</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>7</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="1">
-        <v>42857</v>
+        <v>42877</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="1">
-        <v>42858</v>
+        <v>42883</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D5" s="4" t="s">
         <v>8</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="6">
-        <v>42859</v>
+        <v>42883</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="D6" s="4" t="s">
         <v>8</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="1">
-        <v>42859</v>
+        <v>42883</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="D7" s="4" t="s">
         <v>8</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="6">
-        <v>42862</v>
+        <v>42884</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="6">
-        <v>42862</v>
+        <v>42884</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>25</v>
+        <v>4</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="1">
-        <v>42862</v>
+        <v>42884</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="D10" s="4" t="s">
         <v>8</v>
       </c>
       <c r="E10" s="5" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="6">
-        <v>42863</v>
+        <v>42886</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E11" s="5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="6">
-        <v>42863</v>
+        <v>42886</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="C12" s="3" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E12" s="5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="1">
-        <v>42863</v>
+        <v>42886</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E13" s="5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="13" x14ac:dyDescent="0.15"/>
